--- a/Code/Results/Cases/Case_3_161/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_161/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.89922218620985</v>
+        <v>14.08569625208598</v>
       </c>
       <c r="C2">
-        <v>14.41810195015204</v>
+        <v>8.282214553375475</v>
       </c>
       <c r="D2">
-        <v>7.292072831477691</v>
+        <v>10.47992087735639</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>22.01689437803896</v>
+        <v>31.56644401273309</v>
       </c>
       <c r="G2">
-        <v>2.079574826847287</v>
+        <v>3.641049173929286</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.443722282098861</v>
+        <v>11.08646941670659</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.04025243545617</v>
+        <v>17.55973421367547</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.03748087107942</v>
+        <v>23.07794417772273</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.5162236670144</v>
+        <v>13.50127079956086</v>
       </c>
       <c r="C3">
-        <v>13.5557901781546</v>
+        <v>7.788697683597315</v>
       </c>
       <c r="D3">
-        <v>7.060855583503622</v>
+        <v>10.45788956088253</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>21.6787807903259</v>
+        <v>31.65945336606849</v>
       </c>
       <c r="G3">
-        <v>2.085673897899104</v>
+        <v>3.643319690848775</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.474130717082718</v>
+        <v>11.1206848908304</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.15529287362327</v>
+        <v>17.36119815080934</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.99248587268402</v>
+        <v>23.18253979538053</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.61770101417321</v>
+        <v>13.13014811736975</v>
       </c>
       <c r="C4">
-        <v>12.99832604630652</v>
+        <v>7.468026579051791</v>
       </c>
       <c r="D4">
-        <v>6.918050479411543</v>
+        <v>10.4457803461756</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21.49737250468156</v>
+        <v>31.72637539553306</v>
       </c>
       <c r="G4">
-        <v>2.089527181473772</v>
+        <v>3.644787188391561</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.496848725923956</v>
+        <v>11.14336307037637</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.58992581963992</v>
+        <v>17.2404747215811</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.98595430711489</v>
+        <v>23.25358937053716</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.23907115055032</v>
+        <v>12.97603105341357</v>
       </c>
       <c r="C5">
-        <v>12.76416811701278</v>
+        <v>7.332951286009466</v>
       </c>
       <c r="D5">
-        <v>6.859721635525149</v>
+        <v>10.44120551168113</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.42989402999558</v>
+        <v>31.75610345621449</v>
       </c>
       <c r="G5">
-        <v>2.091125517533065</v>
+        <v>3.645403720494028</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.507088334306084</v>
+        <v>11.15302447756411</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.35419765773907</v>
+        <v>17.19162303804739</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.98835120629713</v>
+        <v>23.28425194025687</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.17544478866133</v>
+        <v>12.95027256418846</v>
       </c>
       <c r="C6">
-        <v>12.72486642102862</v>
+        <v>7.310257792362843</v>
       </c>
       <c r="D6">
-        <v>6.850030368205001</v>
+        <v>10.44046768101598</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>21.41907405156875</v>
+        <v>31.76118782615329</v>
       </c>
       <c r="G6">
-        <v>2.091392640065416</v>
+        <v>3.645507215207528</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.508846892746516</v>
+        <v>11.15465410559303</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.31473944585085</v>
+        <v>17.1835334198616</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.98904739910492</v>
+        <v>23.28944645091618</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.61264526814022</v>
+        <v>13.12808101506491</v>
       </c>
       <c r="C7">
-        <v>12.99519631163425</v>
+        <v>7.466222659181645</v>
       </c>
       <c r="D7">
-        <v>6.917264276995944</v>
+        <v>10.44571718765126</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>21.49643656741019</v>
+        <v>31.72676638624037</v>
       </c>
       <c r="G7">
-        <v>2.089548622386895</v>
+        <v>3.644795428112792</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.496982891772516</v>
+        <v>11.14349166748499</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.58676802404504</v>
+        <v>17.23981443481514</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.98596648115191</v>
+        <v>23.25399598591063</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.43256769166828</v>
+        <v>13.88685198306576</v>
       </c>
       <c r="C8">
-        <v>14.12661441096082</v>
+        <v>8.115733264298255</v>
       </c>
       <c r="D8">
-        <v>7.212566490188877</v>
+        <v>10.472032127019</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>21.89479989482777</v>
+        <v>31.59647037096072</v>
       </c>
       <c r="G8">
-        <v>2.081655793374056</v>
+        <v>3.641816852162388</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.453345131176197</v>
+        <v>11.09792035547159</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.73978789267793</v>
+        <v>17.4910631699878</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.01744278060546</v>
+        <v>23.11258722924893</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.61302456044649</v>
+        <v>15.26951509401634</v>
       </c>
       <c r="C9">
-        <v>16.12181344026452</v>
+        <v>9.24816590840835</v>
       </c>
       <c r="D9">
-        <v>7.781999663808932</v>
+        <v>10.53473894403968</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>22.88879111523052</v>
+        <v>31.41928750933944</v>
       </c>
       <c r="G9">
-        <v>2.066998547589093</v>
+        <v>3.63655544932558</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.40156462000982</v>
+        <v>11.02180400110742</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.86421518499712</v>
+        <v>17.99099766303315</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.25703558339973</v>
+        <v>22.88978800732234</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.7178008460481</v>
+        <v>16.21231519253035</v>
       </c>
       <c r="C10">
-        <v>17.45088396239808</v>
+        <v>9.992978513812725</v>
       </c>
       <c r="D10">
-        <v>8.190935798822499</v>
+        <v>10.58736604580336</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>23.75396916102143</v>
+        <v>31.33743698592567</v>
       </c>
       <c r="G10">
-        <v>2.056670816223572</v>
+        <v>3.633039369597429</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.386548608986773</v>
+        <v>10.97395844389041</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.46194380195025</v>
+        <v>18.35987523350441</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.55489975077803</v>
+        <v>22.75976576776934</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.62612499376561</v>
+        <v>16.62389726535774</v>
       </c>
       <c r="C11">
-        <v>18.02597537659355</v>
+        <v>10.31277431360853</v>
       </c>
       <c r="D11">
-        <v>8.374322764875563</v>
+        <v>10.6126810876371</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>24.17757179127424</v>
+        <v>31.31079918881649</v>
       </c>
       <c r="G11">
-        <v>2.052054000352745</v>
+        <v>3.631514878321143</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.385276686221744</v>
+        <v>10.95394628552947</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.15235599074463</v>
+        <v>18.52743263739229</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.71942689836345</v>
+        <v>22.70801707330245</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.96311712360956</v>
+        <v>16.77716603405245</v>
       </c>
       <c r="C12">
-        <v>18.23953101202308</v>
+        <v>10.43113311466425</v>
       </c>
       <c r="D12">
-        <v>8.443346661996356</v>
+        <v>10.62246028434073</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>24.34233719525678</v>
+        <v>31.30224289853202</v>
       </c>
       <c r="G12">
-        <v>2.050316154875243</v>
+        <v>3.630948314494822</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.385643198598506</v>
+        <v>10.94662033412968</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.40864405171233</v>
+        <v>18.59079764972409</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.78609140138493</v>
+        <v>22.68949236359691</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.89084824517219</v>
+        <v>16.74427342104767</v>
       </c>
       <c r="C13">
-        <v>18.19372513585583</v>
+        <v>10.40576438376547</v>
       </c>
       <c r="D13">
-        <v>8.42850041903319</v>
+        <v>10.62034565609497</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>24.30665772167942</v>
+        <v>31.30401746095625</v>
       </c>
       <c r="G13">
-        <v>2.050689987555376</v>
+        <v>3.631069857906664</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.385525740939274</v>
+        <v>10.94818688917881</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.35367584121736</v>
+        <v>18.5771554387555</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.77153720425812</v>
+        <v>22.69343422501205</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.65398866148917</v>
+        <v>16.63655917619117</v>
       </c>
       <c r="C14">
-        <v>18.04362910848771</v>
+        <v>10.32256671490045</v>
       </c>
       <c r="D14">
-        <v>8.380010043970248</v>
+        <v>10.61348178915799</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>24.19103963569236</v>
+        <v>31.31006453981811</v>
       </c>
       <c r="G14">
-        <v>2.051910824998221</v>
+        <v>3.631468052088167</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.38528955367572</v>
+        <v>10.95333851948098</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.17354382985149</v>
+        <v>18.53264770728976</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.72482299529352</v>
+        <v>22.70647152024316</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.50800054243075</v>
+        <v>16.57024128232448</v>
       </c>
       <c r="C15">
-        <v>17.95114240748082</v>
+        <v>10.27124868711644</v>
       </c>
       <c r="D15">
-        <v>8.350252401026555</v>
+        <v>10.60930245451967</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>24.120788566409</v>
+        <v>31.31396810737398</v>
       </c>
       <c r="G15">
-        <v>2.05265994427502</v>
+        <v>3.631713352969538</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.385256823490431</v>
+        <v>10.95652689214705</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.06253872345297</v>
+        <v>18.50537286088404</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.69678250387595</v>
+        <v>22.71459698371355</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.65745888517364</v>
+        <v>16.18506023502262</v>
       </c>
       <c r="C16">
-        <v>17.41270844648876</v>
+        <v>9.971695769587434</v>
       </c>
       <c r="D16">
-        <v>8.17889421620197</v>
+        <v>10.58573891057096</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>23.72689340752538</v>
+        <v>31.33939168741814</v>
       </c>
       <c r="G16">
-        <v>2.056974067639098</v>
+        <v>3.633140502930387</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.38674771351065</v>
+        <v>10.9753015724387</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.41609782879216</v>
+        <v>18.34891571262274</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.54474801464334</v>
+        <v>22.76329719467869</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.12315808197875</v>
+        <v>15.94425619632424</v>
       </c>
       <c r="C17">
-        <v>17.0748528388873</v>
+        <v>9.783052494595006</v>
       </c>
       <c r="D17">
-        <v>8.073063673789923</v>
+        <v>10.57163223123172</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>23.49297210420461</v>
+        <v>31.35770761664794</v>
       </c>
       <c r="G17">
-        <v>2.059640610917347</v>
+        <v>3.634035180460321</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.389120135394669</v>
+        <v>10.98726831884579</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.01025799157035</v>
+        <v>18.25283532754106</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.45905288581912</v>
+        <v>22.79507363169778</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.81121007899786</v>
+        <v>15.80412844522346</v>
       </c>
       <c r="C18">
-        <v>16.87774754734861</v>
+        <v>9.67275939802879</v>
       </c>
       <c r="D18">
-        <v>8.011946224768153</v>
+        <v>10.56364813440228</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>23.36125158145781</v>
+        <v>31.36923947858092</v>
       </c>
       <c r="G18">
-        <v>2.061182070888639</v>
+        <v>3.634556837125801</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.391004873241505</v>
+        <v>10.99431626973008</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.77339825143812</v>
+        <v>18.19755212330399</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.41248531012782</v>
+        <v>22.81404660432276</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.70479137860652</v>
+        <v>15.75640804802702</v>
       </c>
       <c r="C19">
-        <v>16.81053308497426</v>
+        <v>9.635108756828629</v>
       </c>
       <c r="D19">
-        <v>7.991211942774441</v>
+        <v>10.56096727203555</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>23.31713716117947</v>
+        <v>31.37331497503585</v>
       </c>
       <c r="G19">
-        <v>2.061705347757837</v>
+        <v>3.634734675685971</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.391730903792747</v>
+        <v>10.99673091871494</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.69260995697192</v>
+        <v>18.17883222693281</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.39717985698499</v>
+        <v>22.82058983672136</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.18051405665368</v>
+        <v>15.97005901335878</v>
       </c>
       <c r="C20">
-        <v>17.11110568528174</v>
+        <v>9.803319250541062</v>
       </c>
       <c r="D20">
-        <v>8.084355351370462</v>
+        <v>10.57312052235754</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>23.51758077039667</v>
+        <v>31.35565461160457</v>
       </c>
       <c r="G20">
-        <v>2.059355961064136</v>
+        <v>3.633939210043549</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.388813403505646</v>
+        <v>10.98597736092695</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.0538149190175</v>
+        <v>18.26306571454598</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.46789215295215</v>
+        <v>22.79161888711859</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.72374843744928</v>
+        <v>16.66826843487963</v>
       </c>
       <c r="C21">
-        <v>18.08783021058532</v>
+        <v>10.34707830166611</v>
       </c>
       <c r="D21">
-        <v>8.394264552386229</v>
+        <v>10.61549267578497</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>24.22488096632743</v>
+        <v>31.3082467674195</v>
       </c>
       <c r="G21">
-        <v>2.051551962509459</v>
+        <v>3.631350802093093</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.385335508956564</v>
+        <v>10.95181851455632</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.22659224934641</v>
+        <v>18.54572341515569</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.73842430086552</v>
+        <v>22.70261301524514</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.69176116086848</v>
+        <v>17.10946507628657</v>
       </c>
       <c r="C22">
-        <v>18.70160249693198</v>
+        <v>10.68647975231574</v>
       </c>
       <c r="D22">
-        <v>8.594341827032645</v>
+        <v>10.64430757940778</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>24.71254918470842</v>
+        <v>31.28618860916732</v>
       </c>
       <c r="G22">
-        <v>2.046511810892281</v>
+        <v>3.629721632916341</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.388030469085749</v>
+        <v>10.93096392063869</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.96305688920147</v>
+        <v>18.72993678068148</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.9407317219725</v>
+        <v>22.65069072580643</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.1787940143959</v>
+        <v>16.87540325401888</v>
       </c>
       <c r="C23">
-        <v>18.37625866220813</v>
+        <v>10.50679762215468</v>
       </c>
       <c r="D23">
-        <v>8.487794123565196</v>
+        <v>10.62882745837187</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>24.44993536392635</v>
+        <v>31.29714269161783</v>
       </c>
       <c r="G23">
-        <v>2.049196765167812</v>
+        <v>3.630585450247192</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.386120851298877</v>
+        <v>10.94195984266049</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.57271070876449</v>
+        <v>18.63168239301512</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.83036535901727</v>
+        <v>22.67782853112588</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.15459828948008</v>
+        <v>15.95839880446796</v>
       </c>
       <c r="C24">
-        <v>17.09472470710651</v>
+        <v>9.794162379641628</v>
       </c>
       <c r="D24">
-        <v>8.079251234364767</v>
+        <v>10.57244727304965</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>23.50644658623049</v>
+        <v>31.35657965516546</v>
       </c>
       <c r="G24">
-        <v>2.05948462491554</v>
+        <v>3.633982575541468</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.388950458481181</v>
+        <v>10.98656047935631</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.03413385500363</v>
+        <v>18.25844069390066</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.46388752572947</v>
+        <v>22.79317858387317</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.79372584997207</v>
+        <v>14.90773702867804</v>
       </c>
       <c r="C25">
-        <v>15.60609960043401</v>
+        <v>8.957070853715898</v>
       </c>
       <c r="D25">
-        <v>7.629379121543502</v>
+        <v>10.51660737738579</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>22.59649348393769</v>
+        <v>31.4587718109505</v>
       </c>
       <c r="G25">
-        <v>2.070881752931031</v>
+        <v>3.637917150280602</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.41171114519877</v>
+        <v>11.04097709192725</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.27726281839842</v>
+        <v>17.85527086173743</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.1717415854292</v>
+        <v>22.94417986264858</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_161/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_161/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.08569625208598</v>
+        <v>20.89922218620977</v>
       </c>
       <c r="C2">
-        <v>8.282214553375475</v>
+        <v>14.41810195015211</v>
       </c>
       <c r="D2">
-        <v>10.47992087735639</v>
+        <v>7.29207283147774</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>31.56644401273309</v>
+        <v>22.01689437803906</v>
       </c>
       <c r="G2">
-        <v>3.641049173929286</v>
+        <v>2.079574826847554</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.08646941670659</v>
+        <v>6.443722282098796</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.55973421367547</v>
+        <v>16.04025243545616</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>23.07794417772273</v>
+        <v>15.0374808710795</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.50127079956086</v>
+        <v>19.51622366701447</v>
       </c>
       <c r="C3">
-        <v>7.788697683597315</v>
+        <v>13.55579017815457</v>
       </c>
       <c r="D3">
-        <v>10.45788956088253</v>
+        <v>7.060855583503588</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>31.65945336606849</v>
+        <v>21.67878079032582</v>
       </c>
       <c r="G3">
-        <v>3.643319690848775</v>
+        <v>2.085673897899238</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.1206848908304</v>
+        <v>6.474130717082669</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.36119815080934</v>
+        <v>15.15529287362324</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>23.18253979538053</v>
+        <v>14.99248587268399</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.13014811736975</v>
+        <v>18.6177010141732</v>
       </c>
       <c r="C4">
-        <v>7.468026579051791</v>
+        <v>12.99832604630643</v>
       </c>
       <c r="D4">
-        <v>10.4457803461756</v>
+        <v>6.918050479411543</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>31.72637539553306</v>
+        <v>21.4973725046815</v>
       </c>
       <c r="G4">
-        <v>3.644787188391561</v>
+        <v>2.089527181473772</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.14336307037637</v>
+        <v>6.496848725924043</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.2404747215811</v>
+        <v>14.58992581963992</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>23.25358937053716</v>
+        <v>14.98595430711482</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.97603105341357</v>
+        <v>18.23907115055029</v>
       </c>
       <c r="C5">
-        <v>7.332951286009466</v>
+        <v>12.76416811701272</v>
       </c>
       <c r="D5">
-        <v>10.44120551168113</v>
+        <v>6.859721635524997</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>31.75610345621449</v>
+        <v>21.42989402999567</v>
       </c>
       <c r="G5">
-        <v>3.645403720494028</v>
+        <v>2.0911255175332</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.15302447756411</v>
+        <v>6.507088334306006</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.19162303804739</v>
+        <v>14.35419765773906</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>23.28425194025687</v>
+        <v>14.98835120629729</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.95027256418846</v>
+        <v>18.17544478866136</v>
       </c>
       <c r="C6">
-        <v>7.310257792362843</v>
+        <v>12.72486642102846</v>
       </c>
       <c r="D6">
-        <v>10.44046768101598</v>
+        <v>6.850030368205051</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>31.76118782615329</v>
+        <v>21.41907405156888</v>
       </c>
       <c r="G6">
-        <v>3.645507215207528</v>
+        <v>2.091392640065282</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.15465410559303</v>
+        <v>6.50884689274651</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.1835334198616</v>
+        <v>14.31473944585086</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>23.28944645091618</v>
+        <v>14.98904739910499</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.12808101506491</v>
+        <v>18.6126452681402</v>
       </c>
       <c r="C7">
-        <v>7.466222659181645</v>
+        <v>12.99519631163446</v>
       </c>
       <c r="D7">
-        <v>10.44571718765126</v>
+        <v>6.917264276995905</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>31.72676638624037</v>
+        <v>21.49643656741009</v>
       </c>
       <c r="G7">
-        <v>3.644795428112792</v>
+        <v>2.089548622387297</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.14349166748499</v>
+        <v>6.496982891772515</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.23981443481514</v>
+        <v>14.58676802404503</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>23.25399598591063</v>
+        <v>14.98596648115182</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.88685198306576</v>
+        <v>20.43256769166826</v>
       </c>
       <c r="C8">
-        <v>8.115733264298255</v>
+        <v>14.1266144109608</v>
       </c>
       <c r="D8">
-        <v>10.472032127019</v>
+        <v>7.21256649018885</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>31.59647037096072</v>
+        <v>21.89479989482789</v>
       </c>
       <c r="G8">
-        <v>3.641816852162388</v>
+        <v>2.081655793373922</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.09792035547159</v>
+        <v>6.453345131176223</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.4910631699878</v>
+        <v>15.73978789267791</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>23.11258722924893</v>
+        <v>15.01744278060558</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.26951509401634</v>
+        <v>23.61302456044648</v>
       </c>
       <c r="C9">
-        <v>9.24816590840835</v>
+        <v>16.12181344026456</v>
       </c>
       <c r="D9">
-        <v>10.53473894403968</v>
+        <v>7.781999663808839</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>31.41928750933944</v>
+        <v>22.88879111523052</v>
       </c>
       <c r="G9">
-        <v>3.63655544932558</v>
+        <v>2.06699854758896</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.02180400110742</v>
+        <v>6.401564620009845</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.99099766303315</v>
+        <v>17.86421518499712</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>22.88978800732234</v>
+        <v>15.25703558339979</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.21231519253035</v>
+        <v>25.71780084604804</v>
       </c>
       <c r="C10">
-        <v>9.992978513812725</v>
+        <v>17.45088396239807</v>
       </c>
       <c r="D10">
-        <v>10.58736604580336</v>
+        <v>8.190935798822522</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>31.33743698592567</v>
+        <v>23.75396916102147</v>
       </c>
       <c r="G10">
-        <v>3.633039369597429</v>
+        <v>2.056670816223439</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.97395844389041</v>
+        <v>6.386548608986758</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.35987523350441</v>
+        <v>19.46194380195023</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.75976576776934</v>
+        <v>15.55489975077806</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.62389726535774</v>
+        <v>26.62612499376564</v>
       </c>
       <c r="C11">
-        <v>10.31277431360853</v>
+        <v>18.02597537659356</v>
       </c>
       <c r="D11">
-        <v>10.6126810876371</v>
+        <v>8.374322764875581</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>31.31079918881649</v>
+        <v>24.17757179127423</v>
       </c>
       <c r="G11">
-        <v>3.631514878321143</v>
+        <v>2.052054000352747</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.95394628552947</v>
+        <v>6.385276686221797</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.52743263739229</v>
+        <v>20.15235599074463</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>22.70801707330245</v>
+        <v>15.71942689836344</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.77716603405245</v>
+        <v>26.96311712360958</v>
       </c>
       <c r="C12">
-        <v>10.43113311466425</v>
+        <v>18.23953101202308</v>
       </c>
       <c r="D12">
-        <v>10.62246028434073</v>
+        <v>8.44334666199634</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>31.30224289853202</v>
+        <v>24.34233719525675</v>
       </c>
       <c r="G12">
-        <v>3.630948314494822</v>
+        <v>2.050316154875375</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.94662033412968</v>
+        <v>6.385643198598506</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.59079764972409</v>
+        <v>20.40864405171233</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>22.68949236359691</v>
+        <v>15.7860914013849</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.74427342104767</v>
+        <v>26.89084824517219</v>
       </c>
       <c r="C13">
-        <v>10.40576438376547</v>
+        <v>18.19372513585585</v>
       </c>
       <c r="D13">
-        <v>10.62034565609497</v>
+        <v>8.428500419033181</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>31.30401746095625</v>
+        <v>24.3066577216794</v>
       </c>
       <c r="G13">
-        <v>3.631069857906664</v>
+        <v>2.050689987555378</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.94818688917881</v>
+        <v>6.385525740939321</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.5771554387555</v>
+        <v>20.35367584121735</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>22.69343422501205</v>
+        <v>15.77153720425809</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.63655917619117</v>
+        <v>26.65398866148918</v>
       </c>
       <c r="C14">
-        <v>10.32256671490045</v>
+        <v>18.04362910848771</v>
       </c>
       <c r="D14">
-        <v>10.61348178915799</v>
+        <v>8.380010043970143</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>31.31006453981811</v>
+        <v>24.19103963569235</v>
       </c>
       <c r="G14">
-        <v>3.631468052088167</v>
+        <v>2.051910824998223</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.95333851948098</v>
+        <v>6.385289553675813</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.53264770728976</v>
+        <v>20.17354382985149</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>22.70647152024316</v>
+        <v>15.72482299529355</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.57024128232448</v>
+        <v>26.5080005424308</v>
       </c>
       <c r="C15">
-        <v>10.27124868711644</v>
+        <v>17.95114240748072</v>
       </c>
       <c r="D15">
-        <v>10.60930245451967</v>
+        <v>8.350252401026502</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>31.31396810737398</v>
+        <v>24.1207885664089</v>
       </c>
       <c r="G15">
-        <v>3.631713352969538</v>
+        <v>2.052659944274887</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.95652689214705</v>
+        <v>6.385256823490461</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.50537286088404</v>
+        <v>20.06253872345302</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.71459698371355</v>
+        <v>15.69678250387587</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.18506023502262</v>
+        <v>25.65745888517359</v>
       </c>
       <c r="C16">
-        <v>9.971695769587434</v>
+        <v>17.41270844648874</v>
       </c>
       <c r="D16">
-        <v>10.58573891057096</v>
+        <v>8.178894216202002</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>31.33939168741814</v>
+        <v>23.72689340752547</v>
       </c>
       <c r="G16">
-        <v>3.633140502930387</v>
+        <v>2.056974067638965</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.9753015724387</v>
+        <v>6.386747713510707</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.34891571262274</v>
+        <v>19.41609782879213</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.76329719467869</v>
+        <v>15.54474801464341</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.94425619632424</v>
+        <v>25.12315808197877</v>
       </c>
       <c r="C17">
-        <v>9.783052494595006</v>
+        <v>17.07485283888722</v>
       </c>
       <c r="D17">
-        <v>10.57163223123172</v>
+        <v>8.073063673789992</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>31.35770761664794</v>
+        <v>23.49297210420467</v>
       </c>
       <c r="G17">
-        <v>3.634035180460321</v>
+        <v>2.059640610917615</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.98726831884579</v>
+        <v>6.389120135394544</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.25283532754106</v>
+        <v>19.01025799157039</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>22.79507363169778</v>
+        <v>15.45905288581915</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.80412844522346</v>
+        <v>24.81121007899792</v>
       </c>
       <c r="C18">
-        <v>9.67275939802879</v>
+        <v>16.87774754734859</v>
       </c>
       <c r="D18">
-        <v>10.56364813440228</v>
+        <v>8.011946224768099</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>31.36923947858092</v>
+        <v>23.3612515814577</v>
       </c>
       <c r="G18">
-        <v>3.634556837125801</v>
+        <v>2.061182070888508</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.99431626973008</v>
+        <v>6.391004873241511</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.19755212330399</v>
+        <v>18.77339825143815</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>22.81404660432276</v>
+        <v>15.41248531012771</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.75640804802702</v>
+        <v>24.7047913786065</v>
       </c>
       <c r="C19">
-        <v>9.635108756828629</v>
+        <v>16.81053308497426</v>
       </c>
       <c r="D19">
-        <v>10.56096727203555</v>
+        <v>7.991211942774348</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>31.37331497503585</v>
+        <v>23.3171371611795</v>
       </c>
       <c r="G19">
-        <v>3.634734675685971</v>
+        <v>2.061705347757704</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.99673091871494</v>
+        <v>6.391730903792797</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.17883222693281</v>
+        <v>18.69260995697191</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>22.82058983672136</v>
+        <v>15.39717985698504</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.97005901335878</v>
+        <v>25.18051405665377</v>
       </c>
       <c r="C20">
-        <v>9.803319250541062</v>
+        <v>17.11110568528163</v>
       </c>
       <c r="D20">
-        <v>10.57312052235754</v>
+        <v>8.084355351370439</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>31.35565461160457</v>
+        <v>23.51758077039662</v>
       </c>
       <c r="G20">
-        <v>3.633939210043549</v>
+        <v>2.059355961063869</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.98597736092695</v>
+        <v>6.388813403505646</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.26306571454598</v>
+        <v>19.0538149190175</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>22.79161888711859</v>
+        <v>15.46789215295211</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.66826843487963</v>
+        <v>26.72374843744922</v>
       </c>
       <c r="C21">
-        <v>10.34707830166611</v>
+        <v>18.08783021058529</v>
       </c>
       <c r="D21">
-        <v>10.61549267578497</v>
+        <v>8.394264552386224</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>31.3082467674195</v>
+        <v>24.22488096632737</v>
       </c>
       <c r="G21">
-        <v>3.631350802093093</v>
+        <v>2.051551962509325</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.95181851455632</v>
+        <v>6.385335508956668</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.54572341515569</v>
+        <v>20.22659224934639</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.70261301524514</v>
+        <v>15.7384243008655</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.10946507628657</v>
+        <v>27.6917611608685</v>
       </c>
       <c r="C22">
-        <v>10.68647975231574</v>
+        <v>18.70160249693194</v>
       </c>
       <c r="D22">
-        <v>10.64430757940778</v>
+        <v>8.594341827032622</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>31.28618860916732</v>
+        <v>24.71254918470844</v>
       </c>
       <c r="G22">
-        <v>3.629721632916341</v>
+        <v>2.046511810892548</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.93096392063869</v>
+        <v>6.388030469085754</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.72993678068148</v>
+        <v>20.96305688920147</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.65069072580643</v>
+        <v>15.94073172197254</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.87540325401888</v>
+        <v>27.17879401439582</v>
       </c>
       <c r="C23">
-        <v>10.50679762215468</v>
+        <v>18.37625866220825</v>
       </c>
       <c r="D23">
-        <v>10.62882745837187</v>
+        <v>8.487794123565191</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>31.29714269161783</v>
+        <v>24.44993536392642</v>
       </c>
       <c r="G23">
-        <v>3.630585450247192</v>
+        <v>2.049196765167945</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.94195984266049</v>
+        <v>6.386120851298918</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.63168239301512</v>
+        <v>20.57271070876444</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.67782853112588</v>
+        <v>15.83036535901735</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.95839880446796</v>
+        <v>25.15459828948007</v>
       </c>
       <c r="C24">
-        <v>9.794162379641628</v>
+        <v>17.09472470710657</v>
       </c>
       <c r="D24">
-        <v>10.57244727304965</v>
+        <v>8.079251234364783</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>31.35657965516546</v>
+        <v>23.50644658623046</v>
       </c>
       <c r="G24">
-        <v>3.633982575541468</v>
+        <v>2.059484624915674</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.98656047935631</v>
+        <v>6.388950458481259</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.25844069390066</v>
+        <v>19.03413385500361</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>22.79317858387317</v>
+        <v>15.46388752572943</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.90773702867804</v>
+        <v>22.79372584997214</v>
       </c>
       <c r="C25">
-        <v>8.957070853715898</v>
+        <v>15.60609960043401</v>
       </c>
       <c r="D25">
-        <v>10.51660737738579</v>
+        <v>7.629379121543611</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>31.4587718109505</v>
+        <v>22.59649348393763</v>
       </c>
       <c r="G25">
-        <v>3.637917150280602</v>
+        <v>2.070881752931163</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.04097709192725</v>
+        <v>6.411711145198749</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.85527086173743</v>
+        <v>17.27726281839842</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>22.94417986264858</v>
+        <v>15.17174158542907</v>
       </c>
     </row>
   </sheetData>
